--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tac1-Tacr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tac1-Tacr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3976503333333334</v>
+        <v>0.9942836666666667</v>
       </c>
       <c r="N2">
-        <v>1.192951</v>
+        <v>2.982851</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8329491398257779</v>
+        <v>2.082703459470222</v>
       </c>
       <c r="R2">
-        <v>7.496542258432</v>
+        <v>18.744331135232</v>
       </c>
       <c r="S2">
         <v>1</v>
